--- a/ecuacion-util-poi/src/test/resources/readFromCellTest.xlsx
+++ b/ecuacion-util-poi/src/test/resources/readFromCellTest.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke.tanaka/Desktop/development/git/ecuacion-util-tools/ecuacion-util-tools-poi/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke.tanaka/Desktop/development/git/ecuacion-utils/ecuacion-util-poi/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E8864-A21F-1847-A164-A898074D0C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78D446-F47C-2F40-9484-C9F6CC96042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2468A711-9CE9-774B-B2CD-5C8D199E7A03}"/>
   </bookViews>
   <sheets>
     <sheet name="StringReader" sheetId="1" r:id="rId1"/>
+    <sheet name="StringReader (2)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
   <si>
     <t>表示形式</t>
     <rPh sb="0" eb="4">
@@ -50,13 +51,6 @@
   </si>
   <si>
     <t>その他</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>読み込みテストセル</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ヨミコミテストセル </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -209,6 +203,391 @@
     <rPh sb="0" eb="1">
       <t xml:space="preserve">モジ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式：標準</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ヒョウジケイシキ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヒョウジュン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式：数値</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ヒョウジケイシキ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">スウチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式：文字列</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ヒョウジケイシキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cell == null</t>
+  </si>
+  <si>
+    <t>入力値種別</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニュウリョクスル </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">アタイ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">シュベツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セツメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式別説明</t>
+    <rPh sb="0" eb="7">
+      <t xml:space="preserve">ヒョウジケイシキベツセツメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>(null)</t>
+  </si>
+  <si>
+    <t>(空文字)</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">カラモジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123.45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値（文字列表示）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">アタイ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数で表示溢れ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイスウ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ヒョウジアプレ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">アフレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123456789012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12345.1234567</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1234567890.12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数、整数部分で表示溢れ</t>
+    <rPh sb="3" eb="7">
+      <t xml:space="preserve">セイスウブブンデ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">ヒョウジアフレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数、小数部分で表示溢れ</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ショウスウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">セイスウブブンデ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">ヒョウジアフレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式：標準</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（テストなし）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値形式で整数表示するために用意。他では空行</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">スウチ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ケイシキ </t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t xml:space="preserve">セイスウヒョウジスル </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ヨウイ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">タデハ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">クウギョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数点以下の桁数：1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数点以下の桁数：0</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">ショウスウテンイカノケタスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「12345.12346」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「1234567890」
+表示形式が標準の場合は、数値は10桁までの表示で、11桁目で四捨五入する仕様の模様</t>
+    <rPh sb="12" eb="16">
+      <t xml:space="preserve">ヒョウジケイシキ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">スウジガ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">アタイ </t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">ケタ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">ヒョウジセズ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ケタメデ </t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t xml:space="preserve">シシャゴニュウスルシヨウノモヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>poiの取得結果は表示とちょっとずれて「1.23457E11」。
+整数が11桁以上ある場合はEになる模様</t>
+    <rPh sb="4" eb="8">
+      <t xml:space="preserve">シュトクケッカハ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヒョウジトチョットズレテ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">セイスウ </t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t xml:space="preserve">ケタイジョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「1234567890.12」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「12345.1234567」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「123456789012」
+数値形式の場合は、表示上「####」になっていても正しく値が取得できる模様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式：数値</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">スウチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式：日付</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヒヅケ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000/1/23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元の表示形式に関わらず、日付を、カーソル入れて貼り付けしても強制的に日付形式に変更される。貼り付けてから元の表示形式に戻した結果こうなった</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">モト </t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t xml:space="preserve">ヒョウジケイシキニカカワラズ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ヒヅクウ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ヅケ </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">ハリツケシテモ </t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t xml:space="preserve">キョウセイテキニ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ヒヅケ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ケイシキニ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ヘンコウサレル </t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">ハリツケテカラ </t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t xml:space="preserve">モトノ </t>
+    </rPh>
+    <rPh sb="54" eb="58">
+      <t xml:space="preserve">ヒョウジケイシキニモドシタケッカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付。一番上（＝一番標準、のはず）のフォーマット</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">イチバンウエノ </t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t xml:space="preserve">イチバンヒョウジュン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別のフォーマット</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ベツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23-Jan-00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別のフォーマット。日がないパターン</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ヒガナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000/1/23
+（表示は23-Jan-00）</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヒョウジハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000/1/23
+（表示は2000年1月）</t>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">ガツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式：文字烈</t>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000年1月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←テストで使用・削除不可</t>
+    <rPh sb="8" eb="12">
+      <t xml:space="preserve">サクジョフカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=$A$1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -216,11 +595,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="183" formatCode="0.000000_ "/>
+    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="185" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="187" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="188" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="189" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="191" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,16 +639,49 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -269,13 +689,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,7 +745,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -296,12 +753,102 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -314,6 +861,173 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="游ゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </font>
@@ -333,13 +1047,91 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90CEFD07-2E11-AB44-8EBE-7E0E724832E5}" name="テーブル1" displayName="テーブル1" ref="A1:D19" totalsRowShown="0">
-  <autoFilter ref="A1:D19" xr:uid="{90CEFD07-2E11-AB44-8EBE-7E0E724832E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90CEFD07-2E11-AB44-8EBE-7E0E724832E5}" name="テーブル1" displayName="テーブル1" ref="E2:F27" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="3" xr3:uid="{7D72EE43-125C-8046-8342-42E1D2A5D261}" name="表示形式別説明" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D29057F8-EDB7-E043-8CE2-9B06487345D9}" name="データ"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8829D8C8-70D1-7D40-86E0-44BF14E2A11E}" name="テーブル2" displayName="テーブル2" ref="H2:I27" totalsRowShown="0">
+  <autoFilter ref="H2:I27" xr:uid="{8829D8C8-70D1-7D40-86E0-44BF14E2A11E}"/>
+  <tableColumns count="2">
+    <tableColumn id="2" xr3:uid="{27F68657-ACB1-3F48-B7B5-95DFE2CEF76F}" name="表示形式別説明" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{A659ADFD-DCF8-F845-8959-F096EC31FE65}" name="データ"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0B12BF09-7896-AD41-83E8-0FB6F4F4475C}" name="テーブル24" displayName="テーブル24" ref="N2:O27" totalsRowShown="0">
+  <autoFilter ref="N2:O27" xr:uid="{0B12BF09-7896-AD41-83E8-0FB6F4F4475C}"/>
+  <tableColumns count="2">
+    <tableColumn id="2" xr3:uid="{7A126F5C-E4C5-1340-B6DB-861F41ABCC03}" name="表示形式別説明" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F52AAC44-BA39-A44E-8083-8FCD7497F6F2}" name="データ" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CF5A5028-E86A-E84E-9C97-95A8C25B30E9}" name="テーブル7" displayName="テーブル7" ref="A2:C27" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:C27" xr:uid="{CF5A5028-E86A-E84E-9C97-95A8C25B30E9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{349B1D26-11A3-3F49-B11E-01434A9B4E03}" name="入力値種別" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{66525336-7DEA-5B40-89C2-8D6A87D7C065}" name="入力値（文字列表示）"/>
+    <tableColumn id="3" xr3:uid="{49441D50-56A9-F945-B2EC-D6D3B057510C}" name="説明" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6BCC59C4-FFF4-6146-9315-4D8D0D87CB1A}" name="テーブル29" displayName="テーブル29" ref="K2:L27" totalsRowShown="0">
+  <autoFilter ref="K2:L27" xr:uid="{6BCC59C4-FFF4-6146-9315-4D8D0D87CB1A}"/>
+  <tableColumns count="2">
+    <tableColumn id="2" xr3:uid="{4C52BCE9-8470-DE4C-AA6F-E09837AB099F}" name="表示形式別説明" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FF204556-862C-394B-8F04-BA54A9D16043}" name="データ" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{45F79073-D825-8F4A-9F1E-D09780F4A1E7}" name="テーブル15" displayName="テーブル15" ref="A2:D22" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3B35F26A-0D9B-7A40-A808-CBCD0D118518}" name="表示形式"/>
-    <tableColumn id="2" xr3:uid="{490B589E-1501-1346-BC56-19B71D83ADDE}" name="データ種別"/>
-    <tableColumn id="3" xr3:uid="{7D72EE43-125C-8046-8342-42E1D2A5D261}" name="その他" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{D29057F8-EDB7-E043-8CE2-9B06487345D9}" name="読み込みテストセル"/>
+    <tableColumn id="1" xr3:uid="{172F122F-82E7-F74E-BA6A-1F00BC92D4B4}" name="表示形式"/>
+    <tableColumn id="2" xr3:uid="{A0979A00-9210-0545-A258-FA37BFC676BB}" name="データ種別"/>
+    <tableColumn id="3" xr3:uid="{08D7042F-F943-E24A-A40C-045170896E42}" name="その他" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{EF6CCF14-E8B6-1A45-9E0B-98ABF49253D9}" name="データ"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{82276EFA-92EC-584C-B8A6-140836E8FCEA}" name="テーブル26" displayName="テーブル26" ref="F2:H10" totalsRowShown="0">
+  <autoFilter ref="F2:H10" xr:uid="{8829D8C8-70D1-7D40-86E0-44BF14E2A11E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{08D0EA51-6944-0145-858C-7C4AEBD84D9A}" name="データ種別"/>
+    <tableColumn id="2" xr3:uid="{B1EA621F-D31B-C042-9C92-DD069165E38A}" name="その他" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C726B574-27A2-EF47-AE7C-048C0956ED21}" name="データ"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE2E6015-4B00-EC4B-BE48-4F17576FE4F7}" name="テーブル247" displayName="テーブル247" ref="J2:L10" totalsRowShown="0">
+  <autoFilter ref="J2:L10" xr:uid="{0B12BF09-7896-AD41-83E8-0FB6F4F4475C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BF9DF699-8FB2-5140-BC82-735759CCC471}" name="データ種別"/>
+    <tableColumn id="2" xr3:uid="{F372AB7C-2407-2647-A8DF-7501718E86E5}" name="その他" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0851C7E7-47D0-9944-A4F4-00E6FE055767}" name="データ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -662,10 +1454,618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A7CAF4-950C-D344-AF50-034BCD5E1E12}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="43" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="43" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="43" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="H1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="K1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="N1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="28"/>
+    </row>
+    <row r="2" spans="1:15" ht="21">
+      <c r="A2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="21">
+      <c r="A3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="K3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="N3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="63">
+      <c r="A4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="N4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="21">
+      <c r="A5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>123</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1">
+        <v>123</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="6">
+        <v>123</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21">
+      <c r="A6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>123.45</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="29">
+        <v>123.45</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="6">
+        <v>123.45</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="42">
+      <c r="A7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="H7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1">
+        <v>123.45</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="N7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="63">
+      <c r="A8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12">
+        <v>123456789012</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="1">
+        <v>123456789012</v>
+      </c>
+      <c r="J8">
+        <v>123456789012</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="6">
+        <v>123456789012</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="63">
+      <c r="A9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1234567890.1199999</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1234567890.1199999</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1234567890.1199999</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21">
+      <c r="A10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>12345.123456699999</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="30">
+        <v>12345.123456699999</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="6">
+        <v>12345.123456699999</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="63">
+      <c r="A11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="12">
+        <v>36548</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="31">
+        <v>36548</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="6">
+        <v>36548</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="42">
+      <c r="A12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="H12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="K12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="32">
+        <v>36548</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="42">
+      <c r="A13" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="33">
+        <v>36548</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="21">
+      <c r="A14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="b">
+        <f>テーブル1[[#This Row],[データ]]=$A$1</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="F15">
+        <f>$A$1</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="1">
+        <f>$A$1</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6">
+        <f>$A$1</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="H16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="H17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="H18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="H19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="H20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="H21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="H22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="H23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="H24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="26"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="27"/>
+      <c r="H25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="6"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="H26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="6"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="H27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CB022C-68D8-134B-B2D2-7101EF737A4A}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -673,257 +2073,539 @@
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="42.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="21">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="63">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="63">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>123</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>123.45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3">
+        <v>123.45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="3">
+        <v>123.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="63">
+      <c r="D7" s="12"/>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <v>123.45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>123.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="63">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12">
+        <v>12345.678900000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="13">
+        <v>12345.678900000001</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="13">
+        <v>12345.678900000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="21">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="14">
+        <v>12345.123455999999</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="14">
+        <v>12345.123455999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="21">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="21">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="21">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
+        <v>123.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="63">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>123.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="21">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="21">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="J15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="21">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="21">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="105">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>123</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="21">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>123.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="21">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3">
-        <v>123.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="63">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>123.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="21">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="6"/>
+      <c r="O19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6">
+        <v>123</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6">
         <v>45292</v>
       </c>
+      <c r="O22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="20">
+        <v>45292</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ecuacion-util-poi/src/test/resources/readFromCellTest.xlsx
+++ b/ecuacion-util-poi/src/test/resources/readFromCellTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke.tanaka/Desktop/development/git/ecuacion-utils/ecuacion-util-poi/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78D446-F47C-2F40-9484-C9F6CC96042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1C5E5E-D843-8046-A394-2EC7F24F410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2468A711-9CE9-774B-B2CD-5C8D199E7A03}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" xr2:uid="{2468A711-9CE9-774B-B2CD-5C8D199E7A03}"/>
   </bookViews>
   <sheets>
     <sheet name="StringReader" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="74">
   <si>
     <t>表示形式</t>
     <rPh sb="0" eb="4">
@@ -461,13 +461,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示形式：日付</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ヒヅケ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2000/1/23</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -562,13 +555,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示形式：文字烈</t>
-    <rPh sb="5" eb="8">
-      <t xml:space="preserve">モジレツ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2000年1月</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -588,6 +574,55 @@
   </si>
   <si>
     <t>=$A$1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付＋時刻</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヒヅケ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジコク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジコク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12:34:56</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式：文字列</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">レツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示形式：日付・時刻</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヒヅケ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジコク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000/1/23  12:34:56</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000/1/23 12:34:56</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -595,17 +630,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
-    <numFmt numFmtId="183" formatCode="0.000000_ "/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
-    <numFmt numFmtId="185" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="187" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="188" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="189" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="191" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0.000000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="184" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="190" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="191" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -754,92 +791,92 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,7 +884,44 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -861,6 +935,29 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="游ゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </font>
@@ -914,27 +1011,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -993,46 +1070,6 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1049,7 +1086,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90CEFD07-2E11-AB44-8EBE-7E0E724832E5}" name="テーブル1" displayName="テーブル1" ref="E2:F27" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="3" xr3:uid="{7D72EE43-125C-8046-8342-42E1D2A5D261}" name="表示形式別説明" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7D72EE43-125C-8046-8342-42E1D2A5D261}" name="表示形式別説明" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{D29057F8-EDB7-E043-8CE2-9B06487345D9}" name="データ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1060,7 +1097,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8829D8C8-70D1-7D40-86E0-44BF14E2A11E}" name="テーブル2" displayName="テーブル2" ref="H2:I27" totalsRowShown="0">
   <autoFilter ref="H2:I27" xr:uid="{8829D8C8-70D1-7D40-86E0-44BF14E2A11E}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{27F68657-ACB1-3F48-B7B5-95DFE2CEF76F}" name="表示形式別説明" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{27F68657-ACB1-3F48-B7B5-95DFE2CEF76F}" name="表示形式別説明" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{A659ADFD-DCF8-F845-8959-F096EC31FE65}" name="データ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1071,33 +1108,33 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0B12BF09-7896-AD41-83E8-0FB6F4F4475C}" name="テーブル24" displayName="テーブル24" ref="N2:O27" totalsRowShown="0">
   <autoFilter ref="N2:O27" xr:uid="{0B12BF09-7896-AD41-83E8-0FB6F4F4475C}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{7A126F5C-E4C5-1340-B6DB-861F41ABCC03}" name="表示形式別説明" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F52AAC44-BA39-A44E-8083-8FCD7497F6F2}" name="データ" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7A126F5C-E4C5-1340-B6DB-861F41ABCC03}" name="表示形式別説明" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{F52AAC44-BA39-A44E-8083-8FCD7497F6F2}" name="データ" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CF5A5028-E86A-E84E-9C97-95A8C25B30E9}" name="テーブル7" displayName="テーブル7" ref="A2:C27" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:C27" xr:uid="{CF5A5028-E86A-E84E-9C97-95A8C25B30E9}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{349B1D26-11A3-3F49-B11E-01434A9B4E03}" name="入力値種別" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{66525336-7DEA-5B40-89C2-8D6A87D7C065}" name="入力値（文字列表示）"/>
-    <tableColumn id="3" xr3:uid="{49441D50-56A9-F945-B2EC-D6D3B057510C}" name="説明" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6BCC59C4-FFF4-6146-9315-4D8D0D87CB1A}" name="テーブル29" displayName="テーブル29" ref="K2:L27" totalsRowShown="0">
+  <autoFilter ref="K2:L27" xr:uid="{6BCC59C4-FFF4-6146-9315-4D8D0D87CB1A}"/>
+  <tableColumns count="2">
+    <tableColumn id="2" xr3:uid="{4C52BCE9-8470-DE4C-AA6F-E09837AB099F}" name="表示形式別説明" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{FF204556-862C-394B-8F04-BA54A9D16043}" name="データ" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6BCC59C4-FFF4-6146-9315-4D8D0D87CB1A}" name="テーブル29" displayName="テーブル29" ref="K2:L27" totalsRowShown="0">
-  <autoFilter ref="K2:L27" xr:uid="{6BCC59C4-FFF4-6146-9315-4D8D0D87CB1A}"/>
-  <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{4C52BCE9-8470-DE4C-AA6F-E09837AB099F}" name="表示形式別説明" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{FF204556-862C-394B-8F04-BA54A9D16043}" name="データ" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CF5A5028-E86A-E84E-9C97-95A8C25B30E9}" name="テーブル7" displayName="テーブル7" ref="A2:C27" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:C27" xr:uid="{CF5A5028-E86A-E84E-9C97-95A8C25B30E9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{349B1D26-11A3-3F49-B11E-01434A9B4E03}" name="入力値種別" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{66525336-7DEA-5B40-89C2-8D6A87D7C065}" name="入力値（文字列表示）"/>
+    <tableColumn id="3" xr3:uid="{49441D50-56A9-F945-B2EC-D6D3B057510C}" name="説明" dataDxfId="5"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1106,7 +1143,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{172F122F-82E7-F74E-BA6A-1F00BC92D4B4}" name="表示形式"/>
     <tableColumn id="2" xr3:uid="{A0979A00-9210-0545-A258-FA37BFC676BB}" name="データ種別"/>
-    <tableColumn id="3" xr3:uid="{08D7042F-F943-E24A-A40C-045170896E42}" name="その他" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{08D7042F-F943-E24A-A40C-045170896E42}" name="その他" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{EF6CCF14-E8B6-1A45-9E0B-98ABF49253D9}" name="データ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1118,7 +1155,7 @@
   <autoFilter ref="F2:H10" xr:uid="{8829D8C8-70D1-7D40-86E0-44BF14E2A11E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{08D0EA51-6944-0145-858C-7C4AEBD84D9A}" name="データ種別"/>
-    <tableColumn id="2" xr3:uid="{B1EA621F-D31B-C042-9C92-DD069165E38A}" name="その他" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B1EA621F-D31B-C042-9C92-DD069165E38A}" name="その他" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{C726B574-27A2-EF47-AE7C-048C0956ED21}" name="データ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1130,7 +1167,7 @@
   <autoFilter ref="J2:L10" xr:uid="{0B12BF09-7896-AD41-83E8-0FB6F4F4475C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BF9DF699-8FB2-5140-BC82-735759CCC471}" name="データ種別"/>
-    <tableColumn id="2" xr3:uid="{F372AB7C-2407-2647-A8DF-7501718E86E5}" name="その他" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F372AB7C-2407-2647-A8DF-7501718E86E5}" name="その他" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{0851C7E7-47D0-9944-A4F4-00E6FE055767}" name="データ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1456,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A7CAF4-950C-D344-AF50-034BCD5E1E12}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1484,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>41</v>
@@ -1495,22 +1532,22 @@
       </c>
       <c r="I1" s="28"/>
       <c r="K1" s="28" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="L1" s="28"/>
       <c r="N1" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="21">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1539,13 +1576,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="21">
-      <c r="A3" s="23" t="s">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="20"/>
       <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1563,13 +1600,13 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="63">
-      <c r="A4" s="23" t="s">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="20"/>
       <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1588,13 +1625,13 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="21">
-      <c r="A5" s="23" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1621,13 +1658,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="21">
-      <c r="A6" s="23" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1639,7 +1676,7 @@
       <c r="H6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="21">
         <v>123.45</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -1654,19 +1691,18 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="42">
-      <c r="A7" s="23" t="s">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="20" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="12"/>
       <c r="H7" s="5" t="s">
         <v>47</v>
       </c>
@@ -1683,19 +1719,19 @@
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="63">
-      <c r="A8" s="23" t="s">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8">
         <v>123456789012</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1719,19 +1755,19 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="63">
-      <c r="A9" s="23" t="s">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9">
         <v>1234567890.1199999</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1752,13 +1788,13 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="21">
-      <c r="A10" s="23" t="s">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1770,7 +1806,7 @@
       <c r="H10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="22">
         <v>12345.123456699999</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -1785,25 +1821,25 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="63">
-      <c r="A11" s="26" t="s">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="F11">
         <v>36548</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="31">
+        <v>56</v>
+      </c>
+      <c r="I11" s="23">
         <v>36548</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -1814,23 +1850,22 @@
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="42">
-      <c r="A12" s="26" t="s">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>59</v>
+      <c r="B12" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="12"/>
       <c r="H12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1838,23 +1873,23 @@
       <c r="K12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="24">
         <v>36548</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="42">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="42">
-      <c r="A13" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>44</v>
@@ -1865,94 +1900,123 @@
       <c r="K13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="25">
         <v>36548</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="21">
-      <c r="A14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="E14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="F14" s="32">
+        <v>0.52425925925925931</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="23">
+        <v>0.52425925925925931</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="33">
+        <v>0.52425925925925931</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="F15" s="32">
+        <v>36548.524259259299</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="23">
+        <v>36548.524259259262</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="35">
+        <v>36548.524259259262</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="21">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="b">
+      <c r="C16" s="20"/>
+      <c r="E16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="b">
         <f>テーブル1[[#This Row],[データ]]=$A$1</f>
         <v>1</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="F15">
+      <c r="C17" s="20"/>
+      <c r="F17">
         <f>$A$1</f>
         <v>1</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="1">
+      <c r="H17" s="5"/>
+      <c r="I17" s="1">
         <f>$A$1</f>
         <v>1</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6">
+      <c r="K17" s="5"/>
+      <c r="L17" s="6">
         <f>$A$1</f>
         <v>1</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="H16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="H17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="26"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="20"/>
       <c r="H18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="6"/>
@@ -1960,8 +2024,7 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="26"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="20"/>
       <c r="H19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="6"/>
@@ -1969,8 +2032,7 @@
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="26"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="20"/>
       <c r="H20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
@@ -1978,8 +2040,7 @@
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="20"/>
       <c r="H21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
@@ -1987,8 +2048,7 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="26"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="20"/>
       <c r="H22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="6"/>
@@ -1996,8 +2056,8 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="26"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="20"/>
       <c r="H23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="6"/>
@@ -2005,8 +2065,7 @@
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="26"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="20"/>
       <c r="H24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="6"/>
@@ -2014,9 +2073,7 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="26"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="27"/>
+      <c r="C25" s="20"/>
       <c r="H25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="6"/>
@@ -2024,8 +2081,8 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="30"/>
+      <c r="C26" s="20"/>
       <c r="H26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
@@ -2033,8 +2090,8 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="26"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="30"/>
+      <c r="C27" s="20"/>
       <c r="H27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
@@ -2085,21 +2142,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="J1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="21">
       <c r="A2" t="s">
@@ -2251,7 +2308,6 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="63">
-      <c r="D7" s="12"/>
       <c r="F7" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +2334,7 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8">
         <v>12345.678900000001</v>
       </c>
       <c r="F8" t="s">
@@ -2287,7 +2343,7 @@
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>12345.678900000001</v>
       </c>
       <c r="J8" t="s">
@@ -2296,7 +2352,7 @@
       <c r="K8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <v>12345.678900000001</v>
       </c>
     </row>
@@ -2317,14 +2373,14 @@
         <v>20</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>12345.123455999999</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="14">
+      <c r="L9" s="12">
         <v>12345.123455999999</v>
       </c>
     </row>
@@ -2431,10 +2487,10 @@
       <c r="K15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="16"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="21">
       <c r="A16" t="s">
@@ -2455,10 +2511,10 @@
       <c r="K16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2481,10 +2537,10 @@
       <c r="K17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2507,10 +2563,10 @@
       <c r="K18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="16">
         <v>123</v>
       </c>
     </row>
@@ -2528,8 +2584,8 @@
       <c r="P19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="19"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
@@ -2547,8 +2603,8 @@
       <c r="P20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="20">
+      <c r="Q20" s="15"/>
+      <c r="R20" s="18">
         <v>123</v>
       </c>
     </row>
@@ -2568,8 +2624,8 @@
       <c r="P21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="19" t="s">
+      <c r="Q21" s="13"/>
+      <c r="R21" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2589,8 +2645,8 @@
       <c r="P22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="20">
+      <c r="Q22" s="15"/>
+      <c r="R22" s="18">
         <v>45292</v>
       </c>
     </row>
